--- a/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
+++ b/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/ifstfs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/ifstfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6678F-31DD-FD45-929F-A3C5F7EBF1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB7607-90C2-1842-851A-D36E9956DA6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
